--- a/RodriguesDaudt_etal_SDM_SWAO_Table_S3.xlsx
+++ b/RodriguesDaudt_etal_SDM_SWAO_Table_S3.xlsx
@@ -173,7 +173,7 @@
     <t>methods applied ¶</t>
   </si>
   <si>
-    <t>¶: full acronym in legend of figure 3 in the main text</t>
+    <t>¶: full acronyms in legend of figure 3 of the main text</t>
   </si>
 </sst>
 </file>
@@ -259,40 +259,40 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -578,7 +578,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,264 +591,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
